--- a/data/trans_orig/P2A_lim_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35992</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25572</v>
+        <v>25166</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49638</v>
+        <v>48009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05186102669033198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03684702393027332</v>
+        <v>0.03626116720947391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07152271928696834</v>
+        <v>0.06917631386712456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -765,19 +765,19 @@
         <v>37293</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26914</v>
+        <v>26160</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50612</v>
+        <v>50012</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05417695084359148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03909914947613443</v>
+        <v>0.03800428096399553</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07352624115370489</v>
+        <v>0.07265469955396209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -786,19 +786,19 @@
         <v>73285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58289</v>
+        <v>58798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91824</v>
+        <v>90417</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05301424664436898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04216631229057603</v>
+        <v>0.04253470540769668</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06642567193565496</v>
+        <v>0.06540778746951251</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>658020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>644374</v>
+        <v>646003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668440</v>
+        <v>668846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.948138973309668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9284772807130321</v>
+        <v>0.9308236861328755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9631529760697272</v>
+        <v>0.9637388327905261</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>659</v>
@@ -836,19 +836,19 @@
         <v>651058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>637739</v>
+        <v>638339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>661437</v>
+        <v>662191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9458230491564085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9264737588462952</v>
+        <v>0.9273453004460381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9609008505238655</v>
+        <v>0.9619957190360046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1305</v>
@@ -857,19 +857,19 @@
         <v>1309078</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1290539</v>
+        <v>1291946</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1324074</v>
+        <v>1323565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9469857533556311</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9335743280643449</v>
+        <v>0.9345922125304876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9578336877094239</v>
+        <v>0.9574652945923038</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>67971</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53487</v>
+        <v>52969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85931</v>
+        <v>84944</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07081879865732998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05572872491311225</v>
+        <v>0.0551885885558277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08953191087733781</v>
+        <v>0.08850382225546202</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -982,19 +982,19 @@
         <v>74502</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58793</v>
+        <v>58447</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93153</v>
+        <v>92704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07693406141373743</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06071165992186996</v>
+        <v>0.06035508058226647</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09619347273853107</v>
+        <v>0.09573004224268275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -1003,19 +1003,19 @@
         <v>142473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120002</v>
+        <v>119021</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169107</v>
+        <v>165532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0738900850205252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.062236198998389</v>
+        <v>0.0617274398013963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08770328772211919</v>
+        <v>0.08584903156035706</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>891811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>873851</v>
+        <v>874838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906295</v>
+        <v>906813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.92918120134267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9104680891226622</v>
+        <v>0.9114961777445375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.944271275086888</v>
+        <v>0.9448114114441718</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>840</v>
@@ -1053,19 +1053,19 @@
         <v>893891</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>875240</v>
+        <v>875689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>909600</v>
+        <v>909946</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9230659385862625</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9038065272614689</v>
+        <v>0.9042699577573177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9392883400781301</v>
+        <v>0.9396449194177335</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1670</v>
@@ -1074,19 +1074,19 @@
         <v>1785702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1759068</v>
+        <v>1762643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1808173</v>
+        <v>1809154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9261099149794748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.912296712277881</v>
+        <v>0.9141509684396428</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9377638010016111</v>
+        <v>0.9382725601986036</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>46335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34371</v>
+        <v>34438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61161</v>
+        <v>62710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06876488688717064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05100953552674321</v>
+        <v>0.05110981049169237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0907686062183244</v>
+        <v>0.09306730422471964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1199,19 +1199,19 @@
         <v>58359</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44648</v>
+        <v>43970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74675</v>
+        <v>73652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08549281452644988</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06540807442128521</v>
+        <v>0.06441403397868896</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1093960041152467</v>
+        <v>0.1078970645558176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -1220,19 +1220,19 @@
         <v>104693</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86329</v>
+        <v>84714</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125989</v>
+        <v>126553</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07718312466515466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06364451708312965</v>
+        <v>0.06245392501084273</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09288336574492438</v>
+        <v>0.09329872799376614</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>627477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612651</v>
+        <v>611102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>639441</v>
+        <v>639374</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9312351131128294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9092313937816753</v>
+        <v>0.9069326957752805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9489904644732563</v>
+        <v>0.9488901895083078</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -1270,19 +1270,19 @@
         <v>624254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>607938</v>
+        <v>608961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>637965</v>
+        <v>638643</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9145071854735501</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8906039958847535</v>
+        <v>0.8921029354441824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9345919255787151</v>
+        <v>0.9355859660213113</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1231</v>
@@ -1291,19 +1291,19 @@
         <v>1251732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1230436</v>
+        <v>1229872</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1270096</v>
+        <v>1271711</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9228168753348454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9071166342550757</v>
+        <v>0.906701272006234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9363554829168703</v>
+        <v>0.9375460749891573</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>67362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53032</v>
+        <v>53417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85215</v>
+        <v>82687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07168723964379461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05643742484340301</v>
+        <v>0.05684670466999167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09068724664511725</v>
+        <v>0.08799681042516598</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -1416,19 +1416,19 @@
         <v>101276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81801</v>
+        <v>83288</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122030</v>
+        <v>123896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09779795227958371</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07899178426837725</v>
+        <v>0.080427755094734</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1178387423023428</v>
+        <v>0.1196415387328131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -1437,19 +1437,19 @@
         <v>168638</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>144421</v>
+        <v>145479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194400</v>
+        <v>196876</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08537647579098681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07311636945243459</v>
+        <v>0.07365205010421504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09841915221778245</v>
+        <v>0.09967267027725622</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>872298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854445</v>
+        <v>856973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>886628</v>
+        <v>886243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9283127603562054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9093127533548826</v>
+        <v>0.912003189574834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9435625751565968</v>
+        <v>0.9431532953300081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>898</v>
@@ -1487,19 +1487,19 @@
         <v>934288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>913534</v>
+        <v>911668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>953763</v>
+        <v>952276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9022020477204163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8821612576976572</v>
+        <v>0.8803584612671865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9210082157316227</v>
+        <v>0.9195722449052656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1819</v>
@@ -1508,19 +1508,19 @@
         <v>1806586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1780824</v>
+        <v>1778348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1830803</v>
+        <v>1829745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9146235242090132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9015808477822176</v>
+        <v>0.9003273297227438</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9268836305475655</v>
+        <v>0.926347949895785</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>217659</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06661808953176103</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>258</v>
@@ -1633,19 +1633,19 @@
         <v>271430</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08042549863251321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>473</v>
@@ -1654,19 +1654,19 @@
         <v>489089</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07363368797087154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3049607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3020801</v>
+        <v>3020589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3076912</v>
+        <v>3075864</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9333819104682389</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9245654854652267</v>
+        <v>0.9245003564909031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9417390237856124</v>
+        <v>0.9414183119261059</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3035</v>
@@ -1704,19 +1704,19 @@
         <v>3103491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3070448</v>
+        <v>3066834</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3134190</v>
+        <v>3132057</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9195745013674868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9097835932154078</v>
+        <v>0.9087127651122336</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9286706292277177</v>
+        <v>0.9280386974851659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6025</v>
@@ -1725,19 +1725,19 @@
         <v>6153098</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6106868</v>
+        <v>6108406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6197324</v>
+        <v>6196427</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9263663120291284</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9194062020154623</v>
+        <v>0.9196377937568427</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9330246539899476</v>
+        <v>0.9328896464329813</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>66615</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52412</v>
+        <v>51057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86548</v>
+        <v>84398</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09469551367363752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07450478593917639</v>
+        <v>0.07257848521913136</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1230305652027639</v>
+        <v>0.1199735923839606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -2090,19 +2090,19 @@
         <v>79367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63659</v>
+        <v>63961</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98731</v>
+        <v>98845</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1138614931923737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09132609987463015</v>
+        <v>0.09175914037179328</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1416413748588008</v>
+        <v>0.1418051070490975</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -2111,19 +2111,19 @@
         <v>145983</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>121287</v>
+        <v>124347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170909</v>
+        <v>171044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1042345818469259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08660131514819293</v>
+        <v>0.08878669926046152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1220327754239326</v>
+        <v>0.1221287644012753</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>636854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>616921</v>
+        <v>619071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>651057</v>
+        <v>652412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9053044863263625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8769694347972358</v>
+        <v>0.8800264076160395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9254952140608236</v>
+        <v>0.9274215147808685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>576</v>
@@ -2161,19 +2161,19 @@
         <v>617683</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>598319</v>
+        <v>598205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>633391</v>
+        <v>633089</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8861385068076264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8583586251411993</v>
+        <v>0.8581948929509025</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9086739001253699</v>
+        <v>0.9082408596282068</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1190</v>
@@ -2182,19 +2182,19 @@
         <v>1254536</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1229610</v>
+        <v>1229475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1279232</v>
+        <v>1276172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8957654181530741</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8779672245760672</v>
+        <v>0.8778712355987246</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9133986848518066</v>
+        <v>0.9112133007395383</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>100514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82701</v>
+        <v>81719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120850</v>
+        <v>122905</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09895430268308668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08141730459879133</v>
+        <v>0.08045044957945706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1189744790650931</v>
+        <v>0.1209977244300016</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -2307,19 +2307,19 @@
         <v>124296</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104152</v>
+        <v>103092</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146063</v>
+        <v>146857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1204206554807207</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1009046404602045</v>
+        <v>0.09987722630913302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1415084014292057</v>
+        <v>0.1422777611555241</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -2328,19 +2328,19 @@
         <v>224811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>195292</v>
+        <v>196619</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>255131</v>
+        <v>254001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1097735226797813</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09535991945517917</v>
+        <v>0.09600793521791601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1245785399653785</v>
+        <v>0.1240267679660166</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>915252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>894916</v>
+        <v>892861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>933065</v>
+        <v>934047</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9010456973169133</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8810255209349065</v>
+        <v>0.8790022755699983</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9185826954012086</v>
+        <v>0.9195495504205429</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>828</v>
@@ -2378,19 +2378,19 @@
         <v>907888</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>886121</v>
+        <v>885327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>928032</v>
+        <v>929092</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8795793445192793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8584915985707942</v>
+        <v>0.8577222388444763</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8990953595397955</v>
+        <v>0.900122773690867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1673</v>
@@ -2399,19 +2399,19 @@
         <v>1823139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1792819</v>
+        <v>1793949</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1852658</v>
+        <v>1851331</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8902264773202188</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8754214600346215</v>
+        <v>0.8759732320339836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9046400805448214</v>
+        <v>0.903992064782084</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>64587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50521</v>
+        <v>49776</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83706</v>
+        <v>82838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08525002315403683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06668336640923446</v>
+        <v>0.06569983458392294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1104854678828237</v>
+        <v>0.1093395972863471</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -2524,19 +2524,19 @@
         <v>77128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59889</v>
+        <v>59861</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97651</v>
+        <v>95014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09924188085884787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07706028153260655</v>
+        <v>0.07702440339186691</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1256485608180972</v>
+        <v>0.1222553815132803</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -2545,19 +2545,19 @@
         <v>141716</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120376</v>
+        <v>120466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168088</v>
+        <v>168778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09233506817058154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0784313390871729</v>
+        <v>0.07848986009151658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1095181334289781</v>
+        <v>0.1099678721592993</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>693036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>673917</v>
+        <v>674785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>707102</v>
+        <v>707847</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9147499768459632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8895145321171763</v>
+        <v>0.890660402713653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9333166335907657</v>
+        <v>0.9343001654160773</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>637</v>
@@ -2595,19 +2595,19 @@
         <v>700046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>679523</v>
+        <v>682160</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717285</v>
+        <v>717313</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9007581191411521</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8743514391819028</v>
+        <v>0.8777446184867197</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9229397184673934</v>
+        <v>0.9229755966081331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1267</v>
@@ -2616,19 +2616,19 @@
         <v>1393081</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1366709</v>
+        <v>1366019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1414421</v>
+        <v>1414331</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9076649318294184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8904818665710219</v>
+        <v>0.8900321278407006</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9215686609128271</v>
+        <v>0.9215101399084834</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>94604</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74500</v>
+        <v>76993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113189</v>
+        <v>116733</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09992510426681957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07868950243353985</v>
+        <v>0.08132267227533557</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1195548698543541</v>
+        <v>0.1232982538012402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -2741,19 +2741,19 @@
         <v>128988</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109563</v>
+        <v>107667</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153252</v>
+        <v>151262</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1228449769935133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1043454733945589</v>
+        <v>0.1025393590929197</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1459530849249536</v>
+        <v>0.144058311884677</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -2762,19 +2762,19 @@
         <v>223592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>193070</v>
+        <v>193279</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>254056</v>
+        <v>255858</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1119776360698156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09669147437479279</v>
+        <v>0.09679641491653079</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1272341964465722</v>
+        <v>0.1281366491603943</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>852150</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>833565</v>
+        <v>830021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>872254</v>
+        <v>869761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9000748957331804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.880445130145646</v>
+        <v>0.8767017461987597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9213104975664602</v>
+        <v>0.9186773277246643</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>882</v>
@@ -2812,19 +2812,19 @@
         <v>921018</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>896754</v>
+        <v>898744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>940443</v>
+        <v>942339</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8771550230064867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8540469150750464</v>
+        <v>0.8559416881153226</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8956545266054411</v>
+        <v>0.8974606409070802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1705</v>
@@ -2833,19 +2833,19 @@
         <v>1773168</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1742704</v>
+        <v>1740902</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1803690</v>
+        <v>1803481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8880223639301844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8727658035534278</v>
+        <v>0.8718633508396056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9033085256252074</v>
+        <v>0.9032035850834695</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>326322</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>293912</v>
+        <v>290534</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>364279</v>
+        <v>363420</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09531501866468625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08584840693053677</v>
+        <v>0.08486196156895577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1064018071386423</v>
+        <v>0.1061510008502603</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>373</v>
@@ -2958,19 +2958,19 @@
         <v>409780</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>371732</v>
+        <v>368517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>449883</v>
+        <v>450570</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1152226944630916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1045243533825034</v>
+        <v>0.1036203553886634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1264990469651132</v>
+        <v>0.1266921005266389</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>667</v>
@@ -2979,19 +2979,19 @@
         <v>736101</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>680009</v>
+        <v>688634</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>792730</v>
+        <v>791784</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.105458238510695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09742210928709205</v>
+        <v>0.09865785065023695</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1135711967415785</v>
+        <v>0.1134357087856461</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3097290</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3059333</v>
+        <v>3060192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3129700</v>
+        <v>3133078</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9046849813353137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8935981928613577</v>
+        <v>0.8938489991497396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9141515930694631</v>
+        <v>0.9151380384310441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2923</v>
@@ -3029,19 +3029,19 @@
         <v>3146634</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3106531</v>
+        <v>3105844</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3184682</v>
+        <v>3187897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8847773055369085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8735009530348868</v>
+        <v>0.8733078994733611</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8954756466174966</v>
+        <v>0.8963796446113366</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5835</v>
@@ -3050,19 +3050,19 @@
         <v>6243926</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6187297</v>
+        <v>6188243</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6300018</v>
+        <v>6291393</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.894541761489305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8864288032584215</v>
+        <v>0.8865642912143534</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9025778907129079</v>
+        <v>0.9013421493497629</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>58108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44908</v>
+        <v>44315</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73238</v>
+        <v>73310</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08611094156976458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06655055640760985</v>
+        <v>0.06567178848012251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1085324564474591</v>
+        <v>0.1086399236695105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -3415,19 +3415,19 @@
         <v>61340</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47767</v>
+        <v>47937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80561</v>
+        <v>77114</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09116548988585066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07099362001041934</v>
+        <v>0.07124526637031284</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1197325070707448</v>
+        <v>0.1146095770339165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -3436,19 +3436,19 @@
         <v>119447</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101792</v>
+        <v>98389</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142585</v>
+        <v>140657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08863453819283344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07553322818678712</v>
+        <v>0.07300810014996473</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1058033580752583</v>
+        <v>0.104372809611397</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>616692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>601562</v>
+        <v>601490</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>629892</v>
+        <v>630485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9138890584302354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.891467543552541</v>
+        <v>0.8913600763304893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9334494435923901</v>
+        <v>0.9343282115198774</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>607</v>
@@ -3486,19 +3486,19 @@
         <v>611499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>592278</v>
+        <v>595725</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>625072</v>
+        <v>624902</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9088345101141493</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.880267492929255</v>
+        <v>0.8853904229660835</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9290063799895806</v>
+        <v>0.9287547336296873</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1202</v>
@@ -3507,19 +3507,19 @@
         <v>1228192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1205054</v>
+        <v>1206982</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1245847</v>
+        <v>1249250</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9113654618071666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8941966419247417</v>
+        <v>0.8956271903886031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9244667718132131</v>
+        <v>0.9269918998500354</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>68282</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52555</v>
+        <v>52753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86430</v>
+        <v>86229</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06726108501329131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05176938128320385</v>
+        <v>0.0519645769550774</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08513848623170961</v>
+        <v>0.0849400565518804</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -3632,19 +3632,19 @@
         <v>92133</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74654</v>
+        <v>76504</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114434</v>
+        <v>114308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08858649296334779</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07178075889730855</v>
+        <v>0.07355970107208347</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1100288406140598</v>
+        <v>0.1099082357644217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -3653,19 +3653,19 @@
         <v>160414</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135523</v>
+        <v>136314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>188140</v>
+        <v>189307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07805275842889284</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06594119195146431</v>
+        <v>0.06632630223780044</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09154323142518199</v>
+        <v>0.09211077381334448</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>946892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>928744</v>
+        <v>928945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>962619</v>
+        <v>962421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9327389149867087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9148615137682899</v>
+        <v>0.9150599434481196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9482306187167961</v>
+        <v>0.9480354230449226</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>892</v>
@@ -3703,19 +3703,19 @@
         <v>947899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>925598</v>
+        <v>925724</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>965378</v>
+        <v>963528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9114135070366522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8899711593859402</v>
+        <v>0.8900917642355782</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9282192411026915</v>
+        <v>0.9264402989279166</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1776</v>
@@ -3724,19 +3724,19 @@
         <v>1894792</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1867066</v>
+        <v>1865899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1919683</v>
+        <v>1918892</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9219472415711072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9084567685748181</v>
+        <v>0.9078892261866556</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9340588080485357</v>
+        <v>0.9336736977621996</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>31444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21006</v>
+        <v>21232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44247</v>
+        <v>45255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04192101324833655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02800475372241892</v>
+        <v>0.02830666433742412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05899012830473113</v>
+        <v>0.0603339320094812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -3849,19 +3849,19 @@
         <v>52904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39755</v>
+        <v>38663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69087</v>
+        <v>68437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06775206927531309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05091295329714444</v>
+        <v>0.04951392692327111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0884773420333763</v>
+        <v>0.08764527483672033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -3870,19 +3870,19 @@
         <v>84348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68147</v>
+        <v>67647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103527</v>
+        <v>106240</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05509606618219975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04451368419852987</v>
+        <v>0.04418690182353203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06762373898847199</v>
+        <v>0.06939577715825652</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>718639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>705836</v>
+        <v>704828</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>729077</v>
+        <v>728851</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9580789867516635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9410098716952691</v>
+        <v>0.9396660679905188</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9719952462775818</v>
+        <v>0.9716933356625759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -3920,19 +3920,19 @@
         <v>727941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>711758</v>
+        <v>712408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>741090</v>
+        <v>742182</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9322479307246869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9115226579666238</v>
+        <v>0.9123547251632798</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9490870467028556</v>
+        <v>0.9504860730767289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1344</v>
@@ -3941,19 +3941,19 @@
         <v>1446580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1427401</v>
+        <v>1424688</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1462781</v>
+        <v>1463281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9449039338178002</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9323762610115279</v>
+        <v>0.9306042228417434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9554863158014699</v>
+        <v>0.9558130981764679</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>80107</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64527</v>
+        <v>62858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98796</v>
+        <v>98958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08544169215531354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06882428973500168</v>
+        <v>0.06704377432735799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1053746801290583</v>
+        <v>0.1055473375875233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -4066,19 +4066,19 @@
         <v>101786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81951</v>
+        <v>83213</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123488</v>
+        <v>124172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0975171792608614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07851402510472709</v>
+        <v>0.07972296716083976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1183085120343627</v>
+        <v>0.118963481476453</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -4087,19 +4087,19 @@
         <v>181894</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155853</v>
+        <v>154880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210008</v>
+        <v>208944</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09180309492570807</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07866015145309671</v>
+        <v>0.07816894603658536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1059927529890006</v>
+        <v>0.1054557592915042</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>857460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>838771</v>
+        <v>838609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>873040</v>
+        <v>874709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9145583078446865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8946253198709417</v>
+        <v>0.8944526624124767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9311757102649982</v>
+        <v>0.9329562256726419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>870</v>
@@ -4137,19 +4137,19 @@
         <v>941993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>920291</v>
+        <v>919607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>961828</v>
+        <v>960566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9024828207391387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8816914879656372</v>
+        <v>0.8810365185235469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9214859748952728</v>
+        <v>0.9202770328391603</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1725</v>
@@ -4158,19 +4158,19 @@
         <v>1799452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1771338</v>
+        <v>1772402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1825493</v>
+        <v>1826466</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.908196905074292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8940072470109994</v>
+        <v>0.8945442407084956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9213398485469032</v>
+        <v>0.9218310539634146</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>237941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>207158</v>
+        <v>207535</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266620</v>
+        <v>269704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07044624402970127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06133246210174855</v>
+        <v>0.06144406259799352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07893708787561635</v>
+        <v>0.07985018813113387</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -4283,19 +4283,19 @@
         <v>308163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>272314</v>
+        <v>275848</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>343946</v>
+        <v>348004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08711326161499133</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07697927246256764</v>
+        <v>0.07797836776051914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09722858783952383</v>
+        <v>0.09837571667271901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>500</v>
@@ -4304,19 +4304,19 @@
         <v>546104</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>503919</v>
+        <v>499495</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>596051</v>
+        <v>597223</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07897241686341512</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07287204604590748</v>
+        <v>0.07223225538348983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08619526979873124</v>
+        <v>0.08636485465795297</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3139683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3111004</v>
+        <v>3107920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3170466</v>
+        <v>3170089</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9295537559702988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9210629121243835</v>
+        <v>0.9201498118688662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9386675378982514</v>
+        <v>0.9385559374020065</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3054</v>
@@ -4354,19 +4354,19 @@
         <v>3229333</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3193550</v>
+        <v>3189492</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3265182</v>
+        <v>3261648</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9128867383850087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9027714121604762</v>
+        <v>0.901624283327281</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9230207275374324</v>
+        <v>0.922021632239481</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6047</v>
@@ -4375,19 +4375,19 @@
         <v>6369015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6319068</v>
+        <v>6317896</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6411200</v>
+        <v>6415624</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9210275831365848</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9138047302012688</v>
+        <v>0.9136351453420464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9271279539540929</v>
+        <v>0.9277677446165101</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>95127</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77776</v>
+        <v>79542</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112585</v>
+        <v>111912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1380835127954093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1128970373569968</v>
+        <v>0.1154599851198474</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.163425545064413</v>
+        <v>0.1624472296497103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -4740,19 +4740,19 @@
         <v>102528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88286</v>
+        <v>87773</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118236</v>
+        <v>119839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1405971224348395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1210664676430871</v>
+        <v>0.1203625548781459</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1621371231746384</v>
+        <v>0.164334636509868</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>316</v>
@@ -4761,19 +4761,19 @@
         <v>197655</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175811</v>
+        <v>173088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223576</v>
+        <v>218923</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1393760553157887</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1239726517279939</v>
+        <v>0.1220520845021038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1576539196437529</v>
+        <v>0.1543729047483823</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>593783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>576325</v>
+        <v>576998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>611134</v>
+        <v>609368</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8619164872045907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.836574454935587</v>
+        <v>0.8375527703502896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8871029626430038</v>
+        <v>0.8845400148801527</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1033</v>
@@ -4811,19 +4811,19 @@
         <v>626707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>610999</v>
+        <v>609396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>640949</v>
+        <v>641462</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8594028775651604</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8378628768253618</v>
+        <v>0.8356653634901322</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.878933532356913</v>
+        <v>0.879637445121854</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1642</v>
@@ -4832,19 +4832,19 @@
         <v>1220490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1194569</v>
+        <v>1199222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1242334</v>
+        <v>1245057</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8606239446842112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8423460803562473</v>
+        <v>0.8456270952516177</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8760273482720061</v>
+        <v>0.8779479154978966</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>147668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123976</v>
+        <v>124242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>172843</v>
+        <v>172894</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1411150420125855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1184741885794982</v>
+        <v>0.1187291100313737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.165173372701991</v>
+        <v>0.1652217776079135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>268</v>
@@ -4957,19 +4957,19 @@
         <v>168879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149251</v>
+        <v>147950</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>189133</v>
+        <v>189545</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1588100338636491</v>
+        <v>0.1588100338636492</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1403524532781087</v>
+        <v>0.1391290302969941</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.177856952325783</v>
+        <v>0.1782438651222933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>423</v>
@@ -4978,19 +4978,19 @@
         <v>316546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>288471</v>
+        <v>290164</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>349027</v>
+        <v>352703</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1500336833591615</v>
+        <v>0.1500336833591616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1367265936628933</v>
+        <v>0.1375292739734779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1654286707495062</v>
+        <v>0.167170889376556</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>898767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>873592</v>
+        <v>873541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922459</v>
+        <v>922193</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8588849579874145</v>
+        <v>0.8588849579874146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8348266272980089</v>
+        <v>0.8347782223920864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8815258114205015</v>
+        <v>0.8812708899686265</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1233</v>
@@ -5028,19 +5028,19 @@
         <v>894522</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>874268</v>
+        <v>873856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>914150</v>
+        <v>915451</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8411899661363508</v>
+        <v>0.8411899661363509</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8221430476742168</v>
+        <v>0.8217561348777066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8596475467218913</v>
+        <v>0.860870969703006</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2039</v>
@@ -5049,19 +5049,19 @@
         <v>1793289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1760808</v>
+        <v>1757132</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1821364</v>
+        <v>1819671</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8499663166408383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8345713292504929</v>
+        <v>0.8328291106234442</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8632734063371064</v>
+        <v>0.862470726026522</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>121041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100139</v>
+        <v>101437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144433</v>
+        <v>143392</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1526756049299645</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1263109614631999</v>
+        <v>0.1279479354133546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.182180416941708</v>
+        <v>0.1808669697535529</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>175</v>
@@ -5174,19 +5174,19 @@
         <v>130293</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>112869</v>
+        <v>112563</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>151147</v>
+        <v>150894</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1605968195591841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.139119880330853</v>
+        <v>0.1387427358426687</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1863010738756683</v>
+        <v>0.1859892695138444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>287</v>
@@ -5195,19 +5195,19 @@
         <v>251334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>224424</v>
+        <v>222117</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>284226</v>
+        <v>280099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1566818959661087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1399062923994151</v>
+        <v>0.1384679924670494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1771868724574411</v>
+        <v>0.1746135925463793</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>671760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>648368</v>
+        <v>649409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>692662</v>
+        <v>691364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8473243950700355</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8178195830582919</v>
+        <v>0.8191330302464472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8736890385368002</v>
+        <v>0.8720520645866455</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>871</v>
@@ -5245,19 +5245,19 @@
         <v>681011</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>660157</v>
+        <v>660410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>698435</v>
+        <v>698741</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8394031804408159</v>
+        <v>0.839403180440816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8136989261243314</v>
+        <v>0.8140107304861555</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.860880119669147</v>
+        <v>0.8612572641573308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1429</v>
@@ -5266,19 +5266,19 @@
         <v>1352771</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1319879</v>
+        <v>1324006</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1379681</v>
+        <v>1381988</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8433181040338914</v>
+        <v>0.8433181040338913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8228131275425591</v>
+        <v>0.8253864074536208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8600937076005849</v>
+        <v>0.8615320075329508</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>110874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93799</v>
+        <v>92821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133802</v>
+        <v>131694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1133978984143592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09593365467621649</v>
+        <v>0.09493348532683209</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1368470279126952</v>
+        <v>0.1346917236672875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>204</v>
@@ -5391,19 +5391,19 @@
         <v>137557</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118308</v>
+        <v>118358</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156182</v>
+        <v>157970</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1233639965026121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.106101151001172</v>
+        <v>0.106145652510246</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1400667141892014</v>
+        <v>0.141670729292888</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>330</v>
@@ -5412,19 +5412,19 @@
         <v>248431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221716</v>
+        <v>221996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278079</v>
+        <v>278194</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1187078766499432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1059425524036317</v>
+        <v>0.1060763702615048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1328742433479187</v>
+        <v>0.1329291358707248</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>866872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>843944</v>
+        <v>846052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>883947</v>
+        <v>884925</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8866021015856408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8631529720873048</v>
+        <v>0.8653082763327123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9040663453237836</v>
+        <v>0.905066514673168</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1352</v>
@@ -5462,19 +5462,19 @@
         <v>977494</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>958869</v>
+        <v>957081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>996743</v>
+        <v>996693</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8766360034973878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8599332858107985</v>
+        <v>0.8583292707071122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8938988489988281</v>
+        <v>0.8938543474897539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2221</v>
@@ -5483,19 +5483,19 @@
         <v>1844366</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1814718</v>
+        <v>1814603</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1871081</v>
+        <v>1870801</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8812921233500567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8671257566520811</v>
+        <v>0.8670708641292751</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8940574475963682</v>
+        <v>0.8939236297384953</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>474711</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>436003</v>
+        <v>436417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>521472</v>
+        <v>517292</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.13540364256046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1243629726215608</v>
+        <v>0.1244809848605344</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1487415243536528</v>
+        <v>0.1475491876805594</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>844</v>
@@ -5608,19 +5608,19 @@
         <v>539257</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>503503</v>
+        <v>504728</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>576971</v>
+        <v>576256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1450009092793508</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1353870123263746</v>
+        <v>0.1357164771962186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1551417724226002</v>
+        <v>0.1549495295350229</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1356</v>
@@ -5629,19 +5629,19 @@
         <v>1013967</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>961252</v>
+        <v>956407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1073789</v>
+        <v>1071338</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1403438121057234</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1330474081047858</v>
+        <v>0.1323767836660814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1486237249953962</v>
+        <v>0.1482844585565282</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3031181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2984420</v>
+        <v>2988600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3069889</v>
+        <v>3069475</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8645963574395399</v>
+        <v>0.86459635743954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8512584756463476</v>
+        <v>0.8524508123194405</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8756370273784392</v>
+        <v>0.8755190151394654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4489</v>
@@ -5679,19 +5679,19 @@
         <v>3179733</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3142019</v>
+        <v>3142734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3215487</v>
+        <v>3214262</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8549990907206491</v>
+        <v>0.8549990907206493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8448582275773997</v>
+        <v>0.8450504704649769</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8646129876736253</v>
+        <v>0.8642835228037813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7331</v>
@@ -5700,19 +5700,19 @@
         <v>6210915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6151093</v>
+        <v>6153544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6263630</v>
+        <v>6268475</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8596561878942767</v>
+        <v>0.8596561878942766</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8513762750046038</v>
+        <v>0.8517155414434719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8669525918952146</v>
+        <v>0.8676232163339187</v>
       </c>
     </row>
     <row r="18">
